--- a/biology/Biochimie/Médaille_Otto-Warburg/Médaille_Otto-Warburg.xlsx
+++ b/biology/Biochimie/Médaille_Otto-Warburg/Médaille_Otto-Warburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Otto-Warburg</t>
+          <t>Médaille_Otto-Warburg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La médaille Otto-Warburg est un prix scientifique décerné depuis 1963 à des scientifiques pour des résultats  exceptionnels dans le domaine de la biochimie[1]. Il porte le nom du biochimiste et physiologiste allemand Otto Heinrich Warburg, lauréat du prix Nobel de physiologie ou médecine en 1931[2]. La Société de biochimie et de biologie moléculaire (Gesellschaft für Biochemie und Molekularbiologie, abrégé en : GBM), qui est l'association professionnelle allemande dans le domaine de la biochimie, est responsable de l'attribution du prix[1].
-La médaille Otto-Warburg est une médaille en bronze [1] et est assortie,  depuis 2023, d'un prix en argent de 25 000 € donné par  Elsevier / BBA. Le prix constitue la plus haute distinction scientifique du GBM [1] et l'une des distinctions les plus importantes dans le domaine de la biochimie en Allemagne. La remise du prix a lieu chaque année dans le cadre de la conférence d'automne du GBM[1] ou dans le cadre du colloque de Mosbach sur la base des nominations par des membres à part entière de la société[1]. Dix lauréats (en janvier 2023) ont reçu également un prix Nobel.
+La médaille Otto-Warburg est un prix scientifique décerné depuis 1963 à des scientifiques pour des résultats  exceptionnels dans le domaine de la biochimie. Il porte le nom du biochimiste et physiologiste allemand Otto Heinrich Warburg, lauréat du prix Nobel de physiologie ou médecine en 1931. La Société de biochimie et de biologie moléculaire (Gesellschaft für Biochemie und Molekularbiologie, abrégé en : GBM), qui est l'association professionnelle allemande dans le domaine de la biochimie, est responsable de l'attribution du prix.
+La médaille Otto-Warburg est une médaille en bronze  et est assortie,  depuis 2023, d'un prix en argent de 25 000 € donné par  Elsevier / BBA. Le prix constitue la plus haute distinction scientifique du GBM  et l'une des distinctions les plus importantes dans le domaine de la biochimie en Allemagne. La remise du prix a lieu chaque année dans le cadre de la conférence d'automne du GBM ou dans le cadre du colloque de Mosbach sur la base des nominations par des membres à part entière de la société. Dix lauréats (en janvier 2023) ont reçu également un prix Nobel.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Otto-Warburg</t>
+          <t>Médaille_Otto-Warburg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1963 Feodor Lynen (Prix Nobel 1964)
@@ -565,14 +579,14 @@
 2014 Rudolf Jaenisch
 2015 Nikolaus Pfanner
 2016 Emmanuelle Charpentier (Prix Nobel 2020)
-2017 Stefan Jentsch (à titre posthume)[3]
-2018 Peter Hegemann[4]
-2019 Marina Rodnina[5]
-2020 Patrick Cramer[6]
-2021 Petra Schwille[7]
-2022 Stefanie Dimmeler[8]
+2017 Stefan Jentsch (à titre posthume)
+2018 Peter Hegemann
+2019 Marina Rodnina
+2020 Patrick Cramer
+2021 Petra Schwille
+2022 Stefanie Dimmeler
 2023 Matthias Mann
-2024 Johannes Büchner[9]
+2024 Johannes Büchner
 </t>
         </is>
       </c>
